--- a/biology/Botanique/Muscat_fleur_d'oranger/Muscat_fleur_d'oranger.xlsx
+++ b/biology/Botanique/Muscat_fleur_d'oranger/Muscat_fleur_d'oranger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscat_fleur_d%27oranger</t>
+          <t>Muscat_fleur_d'oranger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le muscat fleur d’oranger est un cépage de table et de cuve blanc.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscat_fleur_d%27oranger</t>
+          <t>Muscat_fleur_d'oranger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscat fleur d’oranger est un peu cultivé en Italie (Colli Euganei), en Californie (50 hectares), en Russie, Ouzbékistan et au Kazakhstan.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscat_fleur_d%27oranger</t>
+          <t>Muscat_fleur_d'oranger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau aranéeux.
 Jeunes feuilles glabres, bronzées à rouges.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscat_fleur_d%27oranger</t>
+          <t>Muscat_fleur_d'oranger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité du cépage est de deuxième époque hâtive: 10 jours après le Chasselas.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscat_fleur_d%27oranger</t>
+          <t>Muscat_fleur_d'oranger</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est tronconique et compacte. La chair des baies est pulpeuse. Le cépage possède une saveur aromatique musquée.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscat_fleur_d%27oranger</t>
+          <t>Muscat_fleur_d'oranger</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscat fleur d’oranger est connu sous les noms de chasselas à fleur d’orange, chasselas musqué (par erreur), chasselas musqué de nantes, Cranford muscat, lacrimae christi, moscato fior d’arancio, moscato fior de naranza, muscat croquant, muscat d’Espagne, muscat de Jésus de l’abbé Leberriays, muscat fleur d’orange, muscat muscadine, muscat primavis, muscat Queen Victoria, muscat de Rivesaltes, orange muscat, pascal muscat, raisin vanille, tokai musqué, org tokos, vanilletraube, weisse vanilletraube.
 </t>
